--- a/Recycling/Met_rec/metrec_Avg_hist.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_hist.xlsx
@@ -111,6 +111,23 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="4">
+  <si>
+    <t>EU27+UK</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,10 +495,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -492,7 +533,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,11 +545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0005442851235553661</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0005364490943057312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.606317926234184E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0001469053834596606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0006505447105085736</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +583,7 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,11 +595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>129.8094089881189</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>131.6377520130484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>174.7380345161756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>102.2315950988859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1009.716861308026</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +633,7 @@
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,11 +645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>133.4235870962069</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>135.6068589440292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>180.6365484765016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>105.9351706834724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1037.759337057571</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +683,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,11 +695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.00116836048702435</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.001153724216115791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.229423470826172E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0002891782482980633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.001250194800305724</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +733,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,11 +745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.002358554533139079</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.002333110274932037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0001351499134153955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0005361604882098145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.002244569537220751</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +783,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,11 +795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.004550598404666876</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.004509003728680601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0002397739795504932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0009470830803617598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.003818563403526603</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +833,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,11 +845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.008495567858109291</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.008431127668221418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0004124221708964691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.001611825305506745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.006229262212466721</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +883,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,11 +895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0154522249176035</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0153561201434351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0007048290555559579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.002669367403233443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.009842817182017212</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +933,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,11 +945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.02738860740159482</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0272470739068272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.001222893004660622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.004331680330899161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.01518416215468137</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +983,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,11 +995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.04714828819663865</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.04693647739719901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.002179537215673597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.006911588506237627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.02300793234264889</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,11 +1045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.07857384846472359</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07824612637714465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.003967909806268084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.01085390951237118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.03439731616831778</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -790,11 +1095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.1265898987326606</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1260668642126656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.007261222713196678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.01677193437903359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0508815442226718</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -816,10 +1145,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -830,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -842,11 +1195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.1972329350208523</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.196385144587193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.01316775164671491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.02549152412229293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.07455775282875307</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,11 +1245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.297606503282636</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.2962346112916784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.02344210352975343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.03809205469777656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1082109299870992</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -894,11 +1295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.4357400825922543</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.4335498381355201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.04070495485010878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0559353613095765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1554281342222356</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -920,11 +1345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.6203253568689632</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.6168942828401194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0686366054093689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.08068177118830247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.2207036126491744</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,11 +1395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.8602863674362735</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.8550222029097648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.1121521891494506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1142934726417703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.3095196866163172</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -972,11 +1445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.164145406694005</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.156238934890097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.1775663858292964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1590232259325347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4283899118434324</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -998,11 +1495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.539212056963538</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.527588647490821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2728389117632624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.2174333155212363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.5850124930395979</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,11 +1545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.990734167551076</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.97401325095637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4081159954766334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.2925891471066913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.7889629183734241</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,11 +1595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.521032522825173</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.497505352880496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.5965056122340099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3884135713563158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.052876996628825</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1076,11 +1645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.128762394027731</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.096396978137911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.8551691027202653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.5102170200164013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.394252517573857</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,11 +1695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5.044623490415287E-09</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.938961119281515E-09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.266709437893566E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.765416959986049E-09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7.486782779805745E-09</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,11 +1745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.808835775155742</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.765315803675929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.207412692072681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.6656751876035348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.838938776424781</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1154,11 +1795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4.553240790570662</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.496046860743768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.685649928190533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.8662214674732946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.426150369211473</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,11 +1845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5.352900563776031</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.279443907603229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.334730321566905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.128681573248935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.214274900801013</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,11 +1895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6.200896143682735</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6.108713440402862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.215411999770213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.477088582717736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.287186767164303</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1232,11 +1945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7.097364757572845</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6.984376945073123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.407850918650029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.944633386729632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.761039882910692</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,11 +1995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8.056173860534313</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7.921001634892836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.015004158370212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.57566817320988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7.791753314640857</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1284,11 +2045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9.113084254853174</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.955398613803398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8.16586752445105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.427686549218323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10.58298515768668</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1310,11 +2095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10.33449871510291</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10.15536859638703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11.01841820394078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.57313916503162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>14.39400145143989</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1336,11 +2145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11.82513809027769</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11.62732285350644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14.76196485915333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.100787672189523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>19.54652626960334</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,11 +2195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13.73220869057003</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13.52033598054186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19.61802844760351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8.115988066732786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>26.42868681087437</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +2233,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1388,11 +2245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.119939377209256E-07</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.075380126649251E-07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.022642723303918E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7.487476844701429E-08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.182207717533172E-07</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,11 +2295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>16.24314310102177</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16.0237169095407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>25.83787895566611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10.73884930355244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35.49266683530367</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +2333,7 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1440,11 +2345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>19.57502841638376</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>19.35622909177156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>33.69532035888806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14.09947099448917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>47.24330612884912</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1466,11 +2395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>23.95541732722442</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23.74668079152904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43.47330851797824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18.32962084833125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>62.21508946107289</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1492,11 +2445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>29.59592376549852</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29.40731195386175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>55.44247405262773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>23.55024911901854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>80.93473240265996</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1518,11 +2495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>36.6616408996324</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>36.50301033577768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>69.82975103821649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>29.8546026510628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>103.8673639852054</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +2533,7 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1544,11 +2545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>45.24022343284805</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>45.12014267897914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>86.77624297670283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>37.28736998628359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>131.3461997794035</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +2583,7 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,11 +2595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>55.31432424289933</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>55.2387037316447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>106.2859690053652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>45.82142439015197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>163.4895434130337</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1596,11 +2645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>66.74018732379079</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>66.71065185387019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>128.1705168995443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>55.33505841946537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>200.1136861150136</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +2683,7 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1622,11 +2695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>79.23445536172291</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>79.24657096040082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>151.9983665173194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>65.59389336409198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>240.6549822580618</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,11 +2745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>92.37144302006595</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>92.41302861575623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>177.0610754613935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>76.24260037533257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>284.1183851856616</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1674,11 +2795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.865082937416048E-06</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.825450522702422E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.126705364119609E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.791584709400182E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.911972708066629E-06</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +2833,7 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1700,11 +2845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>105.5940511680163</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>105.6439384447242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>202.3701210212256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>86.81164671374859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>329.0712836749332</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +2883,7 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1726,11 +2895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>118.2419884813396</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>118.2695401519822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>226.6963461315895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>96.74283684910853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>373.6983141377472</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +2933,7 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1752,11 +2945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>129.599622675699</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>129.5650962802754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>248.6577382120977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>105.4343495609605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>415.9244177414816</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +2983,7 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,11 +2995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>138.9620039014733</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>138.8175690589469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>266.851130692166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>112.3016439734173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>453.6002190098271</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +3033,7 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1804,11 +3045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>145.7121862302953</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>145.4031863916573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>280.0116197072374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>116.8460292048006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>484.7281953035399</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +3083,7 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1830,11 +3095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>149.3978862215976</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>148.8639317559217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>287.1736612383373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>118.7193879799371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>507.6947456166861</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,11 +3145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>149.7930437493449</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>148.9687371444758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>287.8035386039543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>117.7727818337917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>521.4669075715807</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +3183,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1882,11 +3195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>146.9315747050065</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>145.7470760351306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>281.876885119416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>114.0794030049842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>525.7179093285152</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +3233,7 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1908,11 +3245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>141.1066127055651</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>139.4887048824523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>269.8871110191116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>107.9281397314398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>520.8629029996227</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +3283,7 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1934,11 +3295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>132.8370375974765</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>130.7116119334092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>252.7874754149997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>99.79104335718085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>508.0091695300961</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +3333,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1960,11 +3345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8.859976366545513E-06</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.672772042145808E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.309294133011011E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.24951949359686E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.414718970301667E-05</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1986,11 +3395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>122.810730231014</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>120.1076327801015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>231.8851371285236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>90.27369163627556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>488.8443255116487</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +3433,7 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2012,11 +3445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>111.817533620646</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>108.4784311489951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>208.713170084846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>80.05948876952827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>465.4923488257538</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +3483,7 @@
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2038,11 +3495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>100.6828430564302</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>96.67221358855761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>184.9027613981276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>69.85653974704167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>440.3582401214878</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +3533,7 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2064,11 +3545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>90.20669279039078</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>85.52534010649767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>162.0655343135577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>60.35042075286864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>415.9650514227465</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +3583,7 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2090,11 +3595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>81.10756432665418</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>75.80727099152465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>141.6840364403299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>52.16138329306847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>394.7756900523964</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +3633,7 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2116,11 +3645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>73.96929461276896</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>68.16639598792864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>125.0061042221492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>45.80363735830595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>378.9974803360411</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +3683,7 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2142,11 +3695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>69.19420760852017</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>63.07906420275382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>112.9480140621795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>41.64804390343573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>370.3881573359333</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +3733,7 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2168,11 +3745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>66.97185679595006</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>60.81063832971062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>106.02396722298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>39.89470561900844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>370.1018950171106</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +3783,7 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2194,11 +3795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>67.27444941539231</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>61.39969647348568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>104.3233313649472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>40.56381809417253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>378.615027188126</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +3833,7 @@
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2220,11 +3845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>69.88390511393484</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>64.67142913827604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>107.5458982080832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>43.50906682654888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>395.7480385183321</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2246,11 +3895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.096694700245802E-05</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.034187644708378E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.335820979552495E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.092426934880866E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.838082825403432E-05</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +3933,7 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2272,11 +3945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>74.44418770587234</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>70.27625309348859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>115.0845280288528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>48.44967610268939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>420.7659498820991</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +3983,7 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2298,11 +3995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>80.52295340691037</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>77.74115342368167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>126.1273660958736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>55.01029735064875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>452.5150002208522</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +4033,7 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2324,11 +4045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>87.66488958587412</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>86.51986229430516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>139.7497352816868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>62.75710571404223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>489.5538205087341</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +4083,7 @@
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2350,11 +4095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>95.42627431910043</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>96.03407479171236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>154.9795479211458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>71.22426777969295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>530.2589830701518</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2376,11 +4145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>103.3911671378836</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>105.7063419120366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>170.8391426095262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>79.93294510154591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>572.9104562940299</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +4183,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2402,11 +4195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>111.17715820861</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>114.9896562815814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>186.3776410337327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>88.40937889882592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>615.7741714910559</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +4233,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2428,11 +4245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>118.4391796792849</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>123.3967517493192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>200.7059213651155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>96.20690488905683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>657.1918765772729</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +4283,7 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2454,11 +4295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>124.8755257076484</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>130.5270541447862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>213.0366657476165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>102.931528952595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>695.6733019531817</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +4333,7 @@
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2480,11 +4345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>130.2357202490701</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>136.086317102563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>222.7243355504417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>108.266683339888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>729.9770624697697</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +4383,7 @@
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2506,11 +4395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>134.3282694916243</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>139.8955781005472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>229.2990119893678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>111.9925605213451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>759.170223561598</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +4433,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2532,11 +4445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9.060077265283553E-05</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.892848098494934E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.71686152593415E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.95476495544266E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0001323705310514019</v>
       </c>
     </row>
   </sheetData>
@@ -2546,7 +4483,7 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2558,11 +4495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>137.0272049747282</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>141.8901403773301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>232.4910631705999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>113.9978434182611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>782.6657634837354</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +4533,7 @@
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2584,11 +4545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>138.2775227930567</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>142.112194759217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>232.2455813280465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>114.2838932610071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>800.2424834884858</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +4583,7 @@
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2610,11 +4595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>138.0997530935077</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>140.700600501394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>228.7248290650827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>112.9619158746101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>812.0496502948262</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +4633,7 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2636,11 +4645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>136.5930507328177</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>137.8791597782522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>222.2957617714742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>110.2429283174334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>818.5930752951276</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +4683,7 @@
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2662,11 +4695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>133.9351674080635</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>133.9426122952402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>213.5007005668935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>106.4201376818329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>820.6971231852648</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +4733,7 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2688,11 +4745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>130.3770792221439</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>129.2390271112237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>203.0126506162539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>101.8445056157655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>819.4411193448616</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +4783,7 @@
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2714,11 +4795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>126.2302415065562</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>124.148264486586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>191.580567015868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>96.89616882246821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>816.0758275287558</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +4833,7 @@
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2740,11 +4845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>121.8455778396161</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>119.0576481576512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>179.9717510703165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>91.95554172124189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>811.9305356846905</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +4883,7 @@
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2766,11 +4895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>117.5853031178752</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>114.3368895645436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>168.9177488886228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>87.37744387229047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>808.3207452742122</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +4933,7 @@
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2792,11 +4945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>113.7910014832601</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>110.314387783005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>159.0677124731861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>83.4699479555717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>806.4624069827806</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2818,11 +4995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0002336816694930079</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0002298464712984324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.64726998061504E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.925779094909003E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0003104777039812977</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +5033,7 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2844,11 +5045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>110.7530707343665</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>107.2567211896251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>150.9509947980976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>80.4781603221242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>807.3956168772212</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +5083,7 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2870,11 +5095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>108.6867950225326</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>105.352898112525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>144.9498611346329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>78.57273938664615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>811.9211564773063</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2896,11 +5145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>107.7186619857145</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>104.7047200979494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>141.2832767818095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>77.84338798116632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>820.5553738304003</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +5183,7 @@
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2922,11 +5195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>107.8838070678304</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>105.3241384439973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>140.0026990772245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>78.29790357674962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>833.5090172710227</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +5233,7 @@
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2948,11 +5245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>109.1329140354454</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>107.1376507658727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>140.9999744269229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>79.86702402432016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>850.6922593831057</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +5283,7 @@
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2974,11 +5295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>111.3455272967511</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>109.9968496339112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>144.0260391167945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>82.41443868450799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>871.7431510057936</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +5333,7 @@
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3000,11 +5345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>114.3467175719553</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>113.6935885377176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>148.7178802854595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>85.75056775387492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>896.0732320458733</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +5383,7 @@
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3026,11 +5395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>117.9248221250818</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>117.9780300951874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>154.6306688953396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>89.64847836842267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>922.9233637653322</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +5433,7 @@
 
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3052,11 +5445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>121.8488449284284</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>122.5779705428481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>161.2721393368198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>93.86056899502556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>951.4242488933969</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +5483,7 @@
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3078,11 +5495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>125.8846606410146</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>127.2180640332756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>168.1367984441163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>98.13506374420139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>980.6578557558613</v>
       </c>
     </row>
   </sheetData>
